--- a/multiindex.xlsx
+++ b/multiindex.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B73"/>
+  <dimension ref="A2:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>GICS 1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>GICS 2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>TICKER</t>
         </is>
@@ -469,12 +479,22 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>AGRO</t>
+          <t>Cable &amp; Satellite</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>TV</t>
         </is>
       </c>
     </row>
@@ -482,15 +502,31 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>BBAR</t>
+          <t>Integrated Telecommunication Services</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>TEO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>BMA</t>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>VIV</t>
         </is>
       </c>
     </row>
@@ -498,23 +534,53 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>CEPU</t>
+          <t>Wireless Telecommunication Services</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>TIMB</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>CRESY</t>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>AMX</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>EDN</t>
+          <t>Broadline Retail</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>MELI</t>
         </is>
       </c>
     </row>
@@ -522,15 +588,39 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>GGAL</t>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ARCO</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>IRS</t>
+          <t>Agricultural Products &amp; Services</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>CRESY</t>
         </is>
       </c>
     </row>
@@ -538,15 +628,31 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>LOMA</t>
+          <t>Brewers</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ABEV</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>PAM</t>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>CCU</t>
         </is>
       </c>
     </row>
@@ -554,15 +660,31 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>SUPV</t>
+          <t>Consumer Staples Merchandise Retail</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ASAI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>TEO</t>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>EXTO</t>
         </is>
       </c>
     </row>
@@ -570,7 +692,17 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>TGS</t>
+          <t>Food Retail</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>CBD</t>
         </is>
       </c>
     </row>
@@ -578,27 +710,49 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>VIST</t>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>AGRO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>YPF</t>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>BRFS</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>Personal Care Products</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>NTCO</t>
         </is>
       </c>
     </row>
@@ -606,39 +760,77 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>ASAI</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>FMX</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>AZUL</t>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>KOF</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>BAK</t>
+          <t>Integrated Oil &amp; Gas</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>YPF</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>BBD</t>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>PBR</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>BRFS</t>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>EC</t>
         </is>
       </c>
     </row>
@@ -646,7 +838,17 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>BSBR</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>VIST</t>
         </is>
       </c>
     </row>
@@ -654,7 +856,17 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>CBD</t>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>CSAN</t>
         </is>
       </c>
     </row>
@@ -662,77 +874,125 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>CIG</t>
+          <t>Oil &amp; Gas Storage &amp; Transportation</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>TGS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>CSAN</t>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>UGP</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>EBR</t>
+          <t>Diversified Banks</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>BBAR</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>ELP</t>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>BMA</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>ERJ</t>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>GGAL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>GGB</t>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>SUPV</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>GOL</t>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>BBD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>ITUB</t>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>BSBR</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>NTCO</t>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>ITUB</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="inlineStr">
         <is>
           <t>NU</t>
         </is>
@@ -740,33 +1000,53 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>PAGS</t>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>BCH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>PBR</t>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>BSAC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>SBS</t>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>CIB</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>SGML</t>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>BAP</t>
         </is>
       </c>
     </row>
@@ -774,7 +1054,17 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>SID</t>
+          <t>Investment Banking &amp; Brokerage</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>XP</t>
         </is>
       </c>
     </row>
@@ -782,31 +1072,63 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>STNE</t>
+          <t>Transaction &amp; Payment Processing Services</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>PAGS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>SUZ</t>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>STNE</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>TIMB</t>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>DLO</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>UGP</t>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>ERJ</t>
         </is>
       </c>
     </row>
@@ -814,35 +1136,55 @@
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>VALE</t>
+          <t>Airport Services</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>ASR</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>VIV</t>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>OMAB</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>XP</t>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>PAC</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
+      <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>Building Products</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>TGLS</t>
         </is>
       </c>
     </row>
@@ -850,43 +1192,85 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>BSAC</t>
+          <t>Passenger Airlines</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>CCU</t>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>GOL</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>ENIC</t>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>VLRS</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>IT Consulting &amp; Other Services</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>GLOB</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>CIB</t>
+          <t>Commodity Chemicals</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>BAK</t>
         </is>
       </c>
     </row>
@@ -894,15 +1278,31 @@
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>Construction Materials</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>LOMA</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>EXTO</t>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>CX</t>
         </is>
       </c>
     </row>
@@ -910,19 +1310,35 @@
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>TGLS</t>
+          <t>Fertilizers &amp; Agricultural Chemicals</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
+      <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>AMX</t>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>BVN</t>
         </is>
       </c>
     </row>
@@ -930,7 +1346,17 @@
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Metals and minig</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>SGML</t>
         </is>
       </c>
     </row>
@@ -938,7 +1364,17 @@
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>Paper Products</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>SUZ</t>
         </is>
       </c>
     </row>
@@ -946,7 +1382,17 @@
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>FMX</t>
+          <t>Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>ALB</t>
         </is>
       </c>
     </row>
@@ -954,31 +1400,59 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>KOF</t>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>GGB</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>OMAB</t>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>SID</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>PAC</t>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>VALE</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Real Estate Operating Companies</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>IRS</t>
         </is>
       </c>
     </row>
@@ -986,67 +1460,97 @@
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>VLRS</t>
+          <t>Real estate Operating and development</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>VTMX</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>VTMX</t>
+          <t>Electric Utilities</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>EDN</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>BAP</t>
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>PAM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>BVN</t>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>CIG</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>ALB</t>
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>EBR</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>ARCO</t>
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>ELP</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>DLO</t>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>ENIC</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1558,17 @@
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>GLOB</t>
+          <t>Independent Power Producers &amp; Energy Traders</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>CEPU</t>
         </is>
       </c>
     </row>
@@ -1062,19 +1576,56 @@
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>Water Utilities</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>SBS</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A18:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A70:A73"/>
+  <mergeCells count="34">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A28:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
